--- a/biology/Zoologie/Carlhubbsia/Carlhubbsia.xlsx
+++ b/biology/Zoologie/Carlhubbsia/Carlhubbsia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlhubbsia est un genre de poissons d'eau douce de la famille des Poeciliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Carlhubbsia se rencontrent en Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Carlhubbsia se rencontrent en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (30 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (30 décembre 2023) :
 Carlhubbsia kidderi (Hubbs, 1936)
 Carlhubbsia stuarti Rosen &amp; Bailey, 1959</t>
         </is>
@@ -574,11 +590,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Carlhubbsia Whitley, 1951[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Carlhubbsia Whitley, 1951,.
 Le genre Carlhubbsia a été créé car le genre Allophallus Hubbs, 1936 était déjà occupé par un genre de diptères, Allophallus Dziedzicki, 1923.
-Carlhubbsia a pour synonyme[2] :
+Carlhubbsia a pour synonyme :
 Allophallus Hubbs, 1936</t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Carlhubbsia, a été choisi en l'honneur de Carl Leavitt Hubbs (1894-1979) qui avait proposé en 1936 le genre Allophallus pour ces poissons, genre qui était déjà occupé par des diptères[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Carlhubbsia, a été choisi en l'honneur de Carl Leavitt Hubbs (1894-1979) qui avait proposé en 1936 le genre Allophallus pour ces poissons, genre qui était déjà occupé par des diptères.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) G. P. Whitley, « New fish names and records », Proceedings of the Royal Zoological Society of New South Wales, Mosman, vol. for 1949-50,‎ 2 avril 1951, p. 61-68 (ISSN 0085-5820, OCLC 3925828, lire en ligne)</t>
         </is>
